--- a/data/광물종합데이터.xlsx
+++ b/data/광물종합데이터.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madda\.ssh\project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D2179-8239-48ED-AF62-8B0A1467654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="7860"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>기준일</t>
   </si>
@@ -437,16 +438,34 @@
   <si>
     <t>주석</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +550,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -639,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,17 +685,29 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="㼿" xfId="8"/>
-    <cellStyle name="㼿?" xfId="4"/>
-    <cellStyle name="㼿㼿" xfId="7"/>
-    <cellStyle name="㼿㼿?" xfId="6"/>
-    <cellStyle name="㼿㼿㼿" xfId="5"/>
-    <cellStyle name="㼿㼿㼿㼿㼿" xfId="3"/>
-    <cellStyle name="줿㼿" xfId="1"/>
+    <cellStyle name="㼿" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="㼿?" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="㼿㼿" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="㼿㼿?" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="㼿㼿㼿" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="㼿㼿㼿㼿㼿" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="줿㼿" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,36 +984,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.95">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -990,14 +1026,14 @@
       <c r="D2" s="2">
         <v>9113</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2999</v>
       </c>
       <c r="F2" s="2">
         <v>35600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,14 +1046,14 @@
       <c r="D3" s="2">
         <v>9267.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3013</v>
       </c>
       <c r="F3" s="2">
         <v>35800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1030,14 +1066,14 @@
       <c r="D4" s="2">
         <v>9091.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3011.5</v>
       </c>
       <c r="F4" s="2">
         <v>36400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1050,14 +1086,14 @@
       <c r="D5" s="2">
         <v>9096</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3015</v>
       </c>
       <c r="F5" s="2">
         <v>36750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1070,14 +1106,14 @@
       <c r="D6" s="2">
         <v>9177</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3025</v>
       </c>
       <c r="F6" s="2">
         <v>36205</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,14 +1126,14 @@
       <c r="D7" s="2">
         <v>9246</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3098</v>
       </c>
       <c r="F7" s="2">
         <v>36925</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,14 +1146,14 @@
       <c r="D8" s="2">
         <v>9527</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3198</v>
       </c>
       <c r="F8" s="2">
         <v>37700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,14 +1166,14 @@
       <c r="D9" s="2">
         <v>9585</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3248</v>
       </c>
       <c r="F9" s="2">
         <v>37755</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,14 +1186,14 @@
       <c r="D10" s="2">
         <v>9661</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3410</v>
       </c>
       <c r="F10" s="2">
         <v>37800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,14 +1206,14 @@
       <c r="D11" s="2">
         <v>9971</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>3552</v>
       </c>
       <c r="F11" s="2">
         <v>37875</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,14 +1226,14 @@
       <c r="D12" s="2">
         <v>10555</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3795</v>
       </c>
       <c r="F12" s="2">
         <v>38950</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1210,14 +1246,14 @@
       <c r="D13" s="2">
         <v>10500</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3815</v>
       </c>
       <c r="F13" s="2">
         <v>39600</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1230,14 +1266,14 @@
       <c r="D14" s="2">
         <v>10652</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3707</v>
       </c>
       <c r="F14" s="2">
         <v>39650</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1250,14 +1286,14 @@
       <c r="D15" s="2">
         <v>10161</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>3584</v>
       </c>
       <c r="F15" s="2">
         <v>38900</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1270,14 +1306,14 @@
       <c r="D16" s="2">
         <v>10051</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>3585</v>
       </c>
       <c r="F16" s="2">
         <v>38950</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1290,14 +1326,14 @@
       <c r="D17" s="2">
         <v>9992</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>3495</v>
       </c>
       <c r="F17" s="2">
         <v>38850</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,14 +1346,14 @@
       <c r="D18" s="2">
         <v>10050</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>3510.5</v>
       </c>
       <c r="F18" s="2">
         <v>39300</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1330,14 +1366,14 @@
       <c r="D19" s="2">
         <v>9988</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>3456</v>
       </c>
       <c r="F19" s="2">
         <v>39050</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,14 +1386,14 @@
       <c r="D20" s="2">
         <v>9849.5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>3385.5</v>
       </c>
       <c r="F20" s="2">
         <v>38750</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1370,14 +1406,14 @@
       <c r="D21" s="2">
         <v>9860</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>3415</v>
       </c>
       <c r="F21" s="2">
         <v>37650</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1390,14 +1426,14 @@
       <c r="D22" s="2">
         <v>9955</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3455.5</v>
       </c>
       <c r="F22" s="2">
         <v>38750</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,14 +1446,14 @@
       <c r="D23" s="2">
         <v>9875</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>3430</v>
       </c>
       <c r="F23" s="2">
         <v>38550</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1430,14 +1466,14 @@
       <c r="D24" s="2">
         <v>9817</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>3394.5</v>
       </c>
       <c r="F24" s="2">
         <v>38400</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1450,14 +1486,14 @@
       <c r="D25" s="2">
         <v>9825</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>3371</v>
       </c>
       <c r="F25" s="2">
         <v>38500</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1470,14 +1506,14 @@
       <c r="D26" s="2">
         <v>9785</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>3342</v>
       </c>
       <c r="F26" s="2">
         <v>38300</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,14 +1526,14 @@
       <c r="D27" s="2">
         <v>9740</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>3229.5</v>
       </c>
       <c r="F27" s="2">
         <v>38400</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1510,14 +1546,14 @@
       <c r="D28" s="2">
         <v>9885</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>3274.5</v>
       </c>
       <c r="F28" s="2">
         <v>38800</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1530,14 +1566,14 @@
       <c r="D29" s="2">
         <v>10002</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>3338</v>
       </c>
       <c r="F29" s="2">
         <v>38600</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1550,14 +1586,14 @@
       <c r="D30" s="2">
         <v>9791</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>3305</v>
       </c>
       <c r="F30" s="2">
         <v>38750</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1570,14 +1606,14 @@
       <c r="D31" s="2">
         <v>9850</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>3315</v>
       </c>
       <c r="F31" s="2">
         <v>39150</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1590,14 +1626,14 @@
       <c r="D32" s="2">
         <v>9854.5</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>3270</v>
       </c>
       <c r="F32" s="2">
         <v>39250</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1610,14 +1646,14 @@
       <c r="D33" s="2">
         <v>9845</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>3266</v>
       </c>
       <c r="F33" s="2">
         <v>38950</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1630,14 +1666,14 @@
       <c r="D34" s="2">
         <v>9680</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>3213</v>
       </c>
       <c r="F34" s="2">
         <v>38900</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1650,14 +1686,14 @@
       <c r="D35" s="2">
         <v>9495</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>3250</v>
       </c>
       <c r="F35" s="2">
         <v>39100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1670,14 +1706,14 @@
       <c r="D36" s="2">
         <v>9450</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>3202</v>
       </c>
       <c r="F36" s="2">
         <v>39700</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1690,14 +1726,14 @@
       <c r="D37" s="2">
         <v>9620.5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>3215</v>
       </c>
       <c r="F37" s="2">
         <v>39750</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1710,14 +1746,14 @@
       <c r="D38" s="2">
         <v>9730</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>3277</v>
       </c>
       <c r="F38" s="2">
         <v>39800</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1730,14 +1766,14 @@
       <c r="D39" s="2">
         <v>9825.5</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>3422</v>
       </c>
       <c r="F39" s="2">
         <v>40200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1750,14 +1786,14 @@
       <c r="D40" s="2">
         <v>9852</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>3429.5</v>
       </c>
       <c r="F40" s="2">
         <v>40250</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,14 +1806,14 @@
       <c r="D41" s="2">
         <v>9932</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>3432</v>
       </c>
       <c r="F41" s="2">
         <v>41000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1790,14 +1826,14 @@
       <c r="D42" s="2">
         <v>9630</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>3331</v>
       </c>
       <c r="F42" s="2">
         <v>40275</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1810,14 +1846,14 @@
       <c r="D43" s="2">
         <v>9751</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>3325</v>
       </c>
       <c r="F43" s="2">
         <v>40450</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1830,14 +1866,14 @@
       <c r="D44" s="2">
         <v>9605</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>3348.5</v>
       </c>
       <c r="F44" s="2">
         <v>40245</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,14 +1886,14 @@
       <c r="D45" s="2">
         <v>9571</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>3296</v>
       </c>
       <c r="F45" s="2">
         <v>39950</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1870,14 +1906,14 @@
       <c r="D46" s="2">
         <v>9520</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>3294</v>
       </c>
       <c r="F46" s="2">
         <v>39500</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1890,14 +1926,14 @@
       <c r="D47" s="2">
         <v>9513</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>3324</v>
       </c>
       <c r="F47" s="2">
         <v>40200</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1910,14 +1946,14 @@
       <c r="D48" s="2">
         <v>9526</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>3224.5</v>
       </c>
       <c r="F48" s="2">
         <v>39400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1930,14 +1966,14 @@
       <c r="D49" s="2">
         <v>9647</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>3287.5</v>
       </c>
       <c r="F49" s="2">
         <v>39900</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1950,14 +1986,14 @@
       <c r="D50" s="2">
         <v>9555.5</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>3334</v>
       </c>
       <c r="F50" s="2">
         <v>39700</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1970,14 +2006,14 @@
       <c r="D51" s="2">
         <v>9578</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>3351</v>
       </c>
       <c r="F51" s="2">
         <v>40150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1990,14 +2026,14 @@
       <c r="D52" s="2">
         <v>9543</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>3332</v>
       </c>
       <c r="F52" s="2">
         <v>40150</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2010,14 +2046,14 @@
       <c r="D53" s="2">
         <v>9500</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>3364</v>
       </c>
       <c r="F53" s="2">
         <v>39525</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2030,14 +2066,14 @@
       <c r="D54" s="2">
         <v>9485</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>3342</v>
       </c>
       <c r="F54" s="2">
         <v>39125</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2050,14 +2086,14 @@
       <c r="D55" s="2">
         <v>9290</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>3270</v>
       </c>
       <c r="F55" s="2">
         <v>38700</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2070,14 +2106,14 @@
       <c r="D56" s="2">
         <v>9506</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>3395</v>
       </c>
       <c r="F56" s="2">
         <v>39050</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2090,14 +2126,14 @@
       <c r="D57" s="2">
         <v>9520</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>3430</v>
       </c>
       <c r="F57" s="2">
         <v>39550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2110,14 +2146,14 @@
       <c r="D58" s="2">
         <v>9406</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>3400.5</v>
       </c>
       <c r="F58" s="2">
         <v>38750</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2130,14 +2166,14 @@
       <c r="D59" s="2">
         <v>9521</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>3445</v>
       </c>
       <c r="F59" s="2">
         <v>39100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2150,14 +2186,14 @@
       <c r="D60" s="2">
         <v>9625</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>3545</v>
       </c>
       <c r="F60" s="2">
         <v>39450</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2170,14 +2206,14 @@
       <c r="D61" s="2">
         <v>9606</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>3569</v>
       </c>
       <c r="F61" s="2">
         <v>39690</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2190,14 +2226,14 @@
       <c r="D62" s="2">
         <v>9582</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>3581</v>
       </c>
       <c r="F62" s="2">
         <v>39850</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2210,14 +2246,14 @@
       <c r="D63" s="2">
         <v>9655</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>3550</v>
       </c>
       <c r="F63" s="2">
         <v>39750</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2230,14 +2266,14 @@
       <c r="D64" s="2">
         <v>9715</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>3601</v>
       </c>
       <c r="F64" s="2">
         <v>39925</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2250,14 +2286,14 @@
       <c r="D65" s="2">
         <v>9692</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>3630</v>
       </c>
       <c r="F65" s="2">
         <v>39635</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2270,14 +2306,14 @@
       <c r="D66" s="2">
         <v>9660</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>3602</v>
       </c>
       <c r="F66" s="2">
         <v>39400</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -2290,14 +2326,14 @@
       <c r="D67" s="2">
         <v>9778</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>3660</v>
       </c>
       <c r="F67" s="2">
         <v>39700</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2310,14 +2346,14 @@
       <c r="D68" s="2">
         <v>9565</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>3590</v>
       </c>
       <c r="F68" s="2">
         <v>39650</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -2330,14 +2366,14 @@
       <c r="D69" s="2">
         <v>9615</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>3602.5</v>
       </c>
       <c r="F69" s="2">
         <v>40650</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2350,14 +2386,14 @@
       <c r="D70" s="2">
         <v>9665</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>3576.5</v>
       </c>
       <c r="F70" s="2">
         <v>40425</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -2370,14 +2406,14 @@
       <c r="D71" s="2">
         <v>9662</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>3540</v>
       </c>
       <c r="F71" s="2">
         <v>40700</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2390,14 +2426,14 @@
       <c r="D72" s="2">
         <v>9945</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>3582</v>
       </c>
       <c r="F72" s="2">
         <v>41750</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -2410,14 +2446,14 @@
       <c r="D73" s="2">
         <v>9972</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>3575</v>
       </c>
       <c r="F73" s="2">
         <v>41850</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2430,14 +2466,14 @@
       <c r="D74" s="2">
         <v>9900</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>3560</v>
       </c>
       <c r="F74" s="2">
         <v>40850</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -2450,14 +2486,14 @@
       <c r="D75" s="2">
         <v>9674.5</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>3535</v>
       </c>
       <c r="F75" s="2">
         <v>41500</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -2470,14 +2506,14 @@
       <c r="D76" s="2">
         <v>9707</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>3544</v>
       </c>
       <c r="F76" s="2">
         <v>42500</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -2490,14 +2526,14 @@
       <c r="D77" s="2">
         <v>9801</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>3602</v>
       </c>
       <c r="F77" s="2">
         <v>43050</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -2510,14 +2546,14 @@
       <c r="D78" s="2">
         <v>9925</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>3674</v>
       </c>
       <c r="F78" s="2">
         <v>44195</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -2530,14 +2566,14 @@
       <c r="D79" s="2">
         <v>9970</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>3686</v>
       </c>
       <c r="F79" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2550,14 +2586,14 @@
       <c r="D80" s="2">
         <v>9800</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>3642</v>
       </c>
       <c r="F80" s="2">
         <v>43375</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -2570,14 +2606,14 @@
       <c r="D81" s="2">
         <v>9744</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>3615</v>
       </c>
       <c r="F81" s="2">
         <v>41700</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2590,14 +2626,14 @@
       <c r="D82" s="2">
         <v>9965</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>3645</v>
       </c>
       <c r="F82" s="2">
         <v>42800</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2610,14 +2646,14 @@
       <c r="D83" s="2">
         <v>9872</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>3649</v>
       </c>
       <c r="F83" s="2">
         <v>43145</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2630,14 +2666,14 @@
       <c r="D84" s="2">
         <v>9678</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>3644</v>
       </c>
       <c r="F84" s="2">
         <v>42450</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -2650,14 +2686,14 @@
       <c r="D85" s="2">
         <v>9620</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>3675</v>
       </c>
       <c r="F85" s="2">
         <v>42550</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2670,14 +2706,14 @@
       <c r="D86" s="2">
         <v>9701</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>3635</v>
       </c>
       <c r="F86" s="2">
         <v>43600</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -2690,14 +2726,14 @@
       <c r="D87" s="2">
         <v>9880</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>3650</v>
       </c>
       <c r="F87" s="2">
         <v>43750</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2710,14 +2746,14 @@
       <c r="D88" s="2">
         <v>9785</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>3618</v>
       </c>
       <c r="F88" s="2">
         <v>43560</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -2730,14 +2766,14 @@
       <c r="D89" s="2">
         <v>9875</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>3635</v>
       </c>
       <c r="F89" s="2">
         <v>43375</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2750,14 +2786,14 @@
       <c r="D90" s="2">
         <v>9850</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>3623</v>
       </c>
       <c r="F90" s="2">
         <v>43250</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -2770,14 +2806,14 @@
       <c r="D91" s="2">
         <v>9760</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>3653</v>
       </c>
       <c r="F91" s="2">
         <v>43375</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -2790,14 +2826,14 @@
       <c r="D92" s="2">
         <v>9881</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>3633.5</v>
       </c>
       <c r="F92" s="2">
         <v>43400</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2810,14 +2846,14 @@
       <c r="D93" s="2">
         <v>10220.5</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>3738</v>
       </c>
       <c r="F93" s="2">
         <v>44445</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -2830,14 +2866,14 @@
       <c r="D94" s="2">
         <v>10040</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>3673</v>
       </c>
       <c r="F94" s="2">
         <v>44195</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -2850,14 +2886,14 @@
       <c r="D95" s="2">
         <v>9882</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>3631</v>
       </c>
       <c r="F95" s="2">
         <v>44000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -2870,14 +2906,14 @@
       <c r="D96" s="2">
         <v>10020</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>3613</v>
       </c>
       <c r="F96" s="2">
         <v>43575</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -2890,14 +2926,14 @@
       <c r="D97" s="2">
         <v>10045.5</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>3634</v>
       </c>
       <c r="F97" s="2">
         <v>43785</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2910,14 +2946,14 @@
       <c r="D98" s="2">
         <v>10010</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>3621</v>
       </c>
       <c r="F98" s="2">
         <v>43750</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -2930,14 +2966,14 @@
       <c r="D99" s="2">
         <v>10015</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>3668.5</v>
       </c>
       <c r="F99" s="2">
         <v>44150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -2950,14 +2986,14 @@
       <c r="D100" s="2">
         <v>9960</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>3600</v>
       </c>
       <c r="F100" s="2">
         <v>44150</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -2970,14 +3006,14 @@
       <c r="D101" s="2">
         <v>10020</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <v>3628</v>
       </c>
       <c r="F101" s="2">
         <v>44700</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2990,14 +3026,14 @@
       <c r="D102" s="2">
         <v>10005</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <v>3615.5</v>
       </c>
       <c r="F102" s="2">
         <v>44750</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -3010,14 +3046,14 @@
       <c r="D103" s="2">
         <v>9983</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>3670</v>
       </c>
       <c r="F103" s="2">
         <v>45795</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -3030,14 +3066,14 @@
       <c r="D104" s="2">
         <v>9920</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>3640</v>
       </c>
       <c r="F104" s="2">
         <v>45200</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -3050,14 +3086,14 @@
       <c r="D105" s="2">
         <v>9974</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>3705</v>
       </c>
       <c r="F105" s="2">
         <v>45550</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -3070,14 +3106,14 @@
       <c r="D106" s="2">
         <v>9976</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>3737</v>
       </c>
       <c r="F106" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -3090,14 +3126,14 @@
       <c r="D107" s="2">
         <v>10257.5</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>3927</v>
       </c>
       <c r="F107" s="2">
         <v>46150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -3110,14 +3146,14 @@
       <c r="D108" s="2">
         <v>10470</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <v>3985</v>
       </c>
       <c r="F108" s="2">
         <v>46655</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -3130,14 +3166,14 @@
       <c r="D109" s="2">
         <v>10466</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <v>4024.5</v>
       </c>
       <c r="F109" s="2">
         <v>47325</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -3150,14 +3186,14 @@
       <c r="D110" s="2">
         <v>10730</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <v>4248</v>
       </c>
       <c r="F110" s="2">
         <v>48670</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -3170,14 +3206,14 @@
       <c r="D111" s="2">
         <v>10171</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>4091</v>
       </c>
       <c r="F111" s="2">
         <v>50050</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -3190,14 +3226,14 @@
       <c r="D112" s="2">
         <v>10052</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>3940</v>
       </c>
       <c r="F112" s="2">
         <v>48200</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -3210,14 +3246,14 @@
       <c r="D113" s="2">
         <v>10144</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>3961</v>
       </c>
       <c r="F113" s="2">
         <v>42800</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -3230,14 +3266,14 @@
       <c r="D114" s="2">
         <v>10145</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>3835</v>
       </c>
       <c r="F114" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -3250,14 +3286,14 @@
       <c r="D115" s="2">
         <v>9880</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>3782</v>
       </c>
       <c r="F115" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -3270,14 +3306,14 @@
       <c r="D116" s="2">
         <v>9826</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>3771</v>
       </c>
       <c r="F116" s="2">
         <v>42525</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -3290,14 +3326,14 @@
       <c r="D117" s="2">
         <v>10100.5</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>3821</v>
       </c>
       <c r="F117" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -3310,14 +3346,14 @@
       <c r="D118" s="2">
         <v>10166</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>3805</v>
       </c>
       <c r="F118" s="2">
         <v>41850</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -3330,14 +3366,14 @@
       <c r="D119" s="2">
         <v>10249</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>3850</v>
       </c>
       <c r="F119" s="2">
         <v>42450</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3350,14 +3386,14 @@
       <c r="D120" s="2">
         <v>10173</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>3896</v>
       </c>
       <c r="F120" s="2">
         <v>41425</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -3370,14 +3406,14 @@
       <c r="D121" s="2">
         <v>10342</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>3945</v>
       </c>
       <c r="F121" s="2">
         <v>41550</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -3390,14 +3426,14 @@
       <c r="D122" s="2">
         <v>10311</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>4018</v>
       </c>
       <c r="F122" s="2">
         <v>42000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -3410,14 +3446,14 @@
       <c r="D123" s="2">
         <v>10421</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>4140</v>
       </c>
       <c r="F123" s="2">
         <v>42425</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3430,14 +3466,14 @@
       <c r="D124" s="2">
         <v>10280</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>4073</v>
       </c>
       <c r="F124" s="2">
         <v>42650</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -3450,14 +3486,14 @@
       <c r="D125" s="2">
         <v>10227</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>4064</v>
       </c>
       <c r="F125" s="2">
         <v>42925</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -3470,14 +3506,14 @@
       <c r="D126" s="2">
         <v>10350</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>4101</v>
       </c>
       <c r="F126" s="2">
         <v>42750</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -3490,14 +3526,14 @@
       <c r="D127" s="2">
         <v>10390.5</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>4134.5</v>
       </c>
       <c r="F127" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.95">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -3510,14 +3546,14 @@
       <c r="D128" s="2">
         <v>10337</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>4260</v>
       </c>
       <c r="F128" s="2">
         <v>44200</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.95">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -3530,14 +3566,14 @@
       <c r="D129" s="2">
         <v>10247</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>4332</v>
       </c>
       <c r="F129" s="2">
         <v>44500</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.95">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -3550,14 +3586,14 @@
       <c r="D130" s="2">
         <v>10301.5</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <v>4471</v>
       </c>
       <c r="F130" s="2">
         <v>45500</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.95">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -3570,36 +3606,153 @@
       <c r="D131" s="2">
         <v>10426</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <v>4310</v>
       </c>
       <c r="F131" s="2">
         <v>45400</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="2"/>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A132" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="8">
+        <v>3443.5</v>
+      </c>
+      <c r="C132" s="7">
+        <v>33600</v>
+      </c>
+      <c r="D132" s="8">
+        <v>10350.5</v>
+      </c>
+      <c r="E132" s="8">
+        <v>4306</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A133" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="8">
+        <v>3346</v>
+      </c>
+      <c r="C133" s="7">
+        <v>33500</v>
+      </c>
+      <c r="D133" s="8">
+        <v>10292</v>
+      </c>
+      <c r="E133" s="8">
+        <v>4250</v>
+      </c>
+      <c r="F133" s="8">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A134" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="8">
+        <v>3395</v>
+      </c>
+      <c r="C134" s="7">
+        <v>34100</v>
+      </c>
+      <c r="D134" s="8">
+        <v>10390</v>
+      </c>
+      <c r="E134" s="8">
+        <v>4280</v>
+      </c>
+      <c r="F134" s="8">
+        <v>44295</v>
+      </c>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A135" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="8">
+        <v>3234.5</v>
+      </c>
+      <c r="C135" s="7">
+        <v>32925</v>
+      </c>
+      <c r="D135" s="8">
+        <v>10235.5</v>
+      </c>
+      <c r="E135" s="8">
+        <v>4372</v>
+      </c>
+      <c r="F135" s="8">
+        <v>43325</v>
+      </c>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A136" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="8">
+        <v>3214.5</v>
+      </c>
+      <c r="C136" s="7">
+        <v>32450</v>
+      </c>
+      <c r="D136" s="8">
+        <v>10201</v>
+      </c>
+      <c r="E136" s="8">
+        <v>4345</v>
+      </c>
+      <c r="F136" s="8">
+        <v>43650</v>
+      </c>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="A137" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="8">
+        <v>3207</v>
+      </c>
+      <c r="C137" s="7">
+        <v>33000</v>
+      </c>
+      <c r="D137" s="8">
+        <v>10290.5</v>
+      </c>
+      <c r="E137" s="8">
+        <v>4515</v>
+      </c>
+      <c r="F137" s="8">
+        <v>43450</v>
+      </c>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.95">
+      <c r="K141" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
